--- a/lib/config/data/file.xlsx
+++ b/lib/config/data/file.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>Фотография</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Компьютерное кресло DXRacer OH/DF73/N</t>
+  </si>
+  <si>
+    <t>Посмотреть</t>
   </si>
   <si>
     <t>Кресло из натуральной перфорированной кожи DXRacer OH/DJ188/N</t>
@@ -223,7 +226,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -276,6 +279,24 @@
       <u val="none"/>
       <sz val="15"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="double"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="double"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -362,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -396,7 +417,13 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -2158,34 +2185,38 @@
       <c r="E4" s="9">
         <v>27000</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G4" s="9">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" customHeight="1" ht="96">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <v>52260</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="12">
         <v>67000</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11">
+      <c r="F5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" customHeight="1" ht="96">
       <c r="A6" s="9"/>
       <c r="B6" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>7</v>
@@ -2196,14 +2227,16 @@
       <c r="E6" s="9">
         <v>27000</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G6" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="9"/>
@@ -2215,10 +2248,10 @@
     <row r="8" spans="1:7" customHeight="1" ht="96">
       <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D8" s="9">
         <v>20124</v>
@@ -2226,7 +2259,9 @@
       <c r="E8" s="9">
         <v>25800</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G8" s="9">
         <v>28</v>
       </c>
@@ -2234,10 +2269,10 @@
     <row r="9" spans="1:7" customHeight="1" ht="96">
       <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="9">
         <v>20124</v>
@@ -2245,7 +2280,9 @@
       <c r="E9" s="9">
         <v>25800</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G9" s="9">
         <v>6</v>
       </c>
@@ -2253,10 +2290,10 @@
     <row r="10" spans="1:7" customHeight="1" ht="96">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="9">
         <v>20826</v>
@@ -2264,7 +2301,9 @@
       <c r="E10" s="9">
         <v>26700</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G10" s="9">
         <v>6</v>
       </c>
@@ -2272,10 +2311,10 @@
     <row r="11" spans="1:7" customHeight="1" ht="96">
       <c r="A11" s="9"/>
       <c r="B11" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="9">
         <v>20124</v>
@@ -2283,7 +2322,9 @@
       <c r="E11" s="9">
         <v>25800</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G11" s="9">
         <v>5</v>
       </c>
@@ -2291,10 +2332,10 @@
     <row r="12" spans="1:7" customHeight="1" ht="96">
       <c r="A12" s="9"/>
       <c r="B12" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="9">
         <v>20124</v>
@@ -2302,7 +2343,9 @@
       <c r="E12" s="9">
         <v>25800</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G12" s="9">
         <v>4</v>
       </c>
@@ -2310,10 +2353,10 @@
     <row r="13" spans="1:7" customHeight="1" ht="96">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="9">
         <v>18954</v>
@@ -2321,7 +2364,9 @@
       <c r="E13" s="9">
         <v>24300</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G13" s="9">
         <v>1</v>
       </c>
@@ -2329,10 +2374,10 @@
     <row r="14" spans="1:7" customHeight="1" ht="96">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="9">
         <v>18954</v>
@@ -2340,7 +2385,9 @@
       <c r="E14" s="9">
         <v>24300</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G14" s="9">
         <v>1</v>
       </c>
@@ -2348,10 +2395,10 @@
     <row r="15" spans="1:7" customHeight="1" ht="96">
       <c r="A15" s="9"/>
       <c r="B15" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="9">
         <v>18954</v>
@@ -2359,7 +2406,9 @@
       <c r="E15" s="9">
         <v>24300</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G15" s="9">
         <v>1</v>
       </c>
@@ -2367,10 +2416,10 @@
     <row r="16" spans="1:7" customHeight="1" ht="96">
       <c r="A16" s="9"/>
       <c r="B16" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="9">
         <v>18954</v>
@@ -2378,7 +2427,9 @@
       <c r="E16" s="9">
         <v>24300</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G16" s="9">
         <v>1</v>
       </c>
@@ -2386,10 +2437,10 @@
     <row r="17" spans="1:7" customHeight="1" ht="96">
       <c r="A17" s="9"/>
       <c r="B17" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="9">
         <v>20826</v>
@@ -2397,7 +2448,9 @@
       <c r="E17" s="9">
         <v>26700</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G17" s="9">
         <v>1</v>
       </c>
@@ -2405,10 +2458,10 @@
     <row r="18" spans="1:7" customHeight="1" ht="96">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="9">
         <v>20826</v>
@@ -2416,7 +2469,9 @@
       <c r="E18" s="9">
         <v>26700</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G18" s="9">
         <v>1</v>
       </c>
@@ -2424,10 +2479,10 @@
     <row r="19" spans="1:7" customHeight="1" ht="96">
       <c r="A19" s="9"/>
       <c r="B19" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="9">
         <v>20124</v>
@@ -2435,14 +2490,16 @@
       <c r="E19" s="9">
         <v>25800</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G19" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="9"/>
@@ -2454,10 +2511,10 @@
     <row r="21" spans="1:7" customHeight="1" ht="96">
       <c r="A21" s="9"/>
       <c r="B21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="D21" s="9">
         <v>26130</v>
@@ -2465,7 +2522,9 @@
       <c r="E21" s="9">
         <v>33500</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G21" s="9">
         <v>14</v>
       </c>
@@ -2473,10 +2532,10 @@
     <row r="22" spans="1:7" customHeight="1" ht="96">
       <c r="A22" s="9"/>
       <c r="B22" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="9">
         <v>55848</v>
@@ -2484,7 +2543,9 @@
       <c r="E22" s="9">
         <v>71600</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G22" s="9">
         <v>4</v>
       </c>
@@ -2492,10 +2553,10 @@
     <row r="23" spans="1:7" customHeight="1" ht="96">
       <c r="A23" s="9"/>
       <c r="B23" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="9">
         <v>26130</v>
@@ -2503,7 +2564,9 @@
       <c r="E23" s="9">
         <v>33500</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G23" s="9">
         <v>3</v>
       </c>
@@ -2511,10 +2574,10 @@
     <row r="24" spans="1:7" customHeight="1" ht="96">
       <c r="A24" s="9"/>
       <c r="B24" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" s="9">
         <v>26130</v>
@@ -2522,14 +2585,16 @@
       <c r="E24" s="9">
         <v>33500</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G24" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="9"/>
@@ -2541,10 +2606,10 @@
     <row r="26" spans="1:7" customHeight="1" ht="96">
       <c r="A26" s="9"/>
       <c r="B26" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="D26" s="9">
         <v>24960</v>
@@ -2552,7 +2617,9 @@
       <c r="E26" s="9">
         <v>32000</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G26" s="9">
         <v>135</v>
       </c>
@@ -2560,10 +2627,10 @@
     <row r="27" spans="1:7" customHeight="1" ht="96">
       <c r="A27" s="9"/>
       <c r="B27" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" s="9">
         <v>24960</v>
@@ -2571,7 +2638,9 @@
       <c r="E27" s="9">
         <v>32000</v>
       </c>
-      <c r="F27" s="9"/>
+      <c r="F27" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G27" s="9">
         <v>33</v>
       </c>
@@ -2579,10 +2648,10 @@
     <row r="28" spans="1:7" customHeight="1" ht="96">
       <c r="A28" s="9"/>
       <c r="B28" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" s="9">
         <v>24960</v>
@@ -2590,7 +2659,9 @@
       <c r="E28" s="9">
         <v>32000</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G28" s="9">
         <v>29</v>
       </c>
@@ -2598,10 +2669,10 @@
     <row r="29" spans="1:7" customHeight="1" ht="96">
       <c r="A29" s="9"/>
       <c r="B29" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9">
         <v>24960</v>
@@ -2609,7 +2680,9 @@
       <c r="E29" s="9">
         <v>32000</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G29" s="9">
         <v>28</v>
       </c>
@@ -2617,10 +2690,10 @@
     <row r="30" spans="1:7" customHeight="1" ht="96">
       <c r="A30" s="9"/>
       <c r="B30" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" s="9">
         <v>24960</v>
@@ -2628,7 +2701,9 @@
       <c r="E30" s="9">
         <v>32000</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G30" s="9">
         <v>26</v>
       </c>
@@ -2636,10 +2711,10 @@
     <row r="31" spans="1:7" customHeight="1" ht="96">
       <c r="A31" s="9"/>
       <c r="B31" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9">
         <v>24960</v>
@@ -2647,14 +2722,16 @@
       <c r="E31" s="9">
         <v>32000</v>
       </c>
-      <c r="F31" s="9"/>
+      <c r="F31" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G31" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
@@ -2666,10 +2743,10 @@
     <row r="33" spans="1:7" customHeight="1" ht="96">
       <c r="A33" s="9"/>
       <c r="B33" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="D33" s="9">
         <v>20826</v>
@@ -2677,7 +2754,9 @@
       <c r="E33" s="9">
         <v>26700</v>
       </c>
-      <c r="F33" s="9"/>
+      <c r="F33" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G33" s="9">
         <v>25</v>
       </c>
@@ -2685,10 +2764,10 @@
     <row r="34" spans="1:7" customHeight="1" ht="96">
       <c r="A34" s="9"/>
       <c r="B34" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D34" s="9">
         <v>20748</v>
@@ -2696,7 +2775,9 @@
       <c r="E34" s="9">
         <v>26600</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G34" s="9">
         <v>11</v>
       </c>
@@ -2704,10 +2785,10 @@
     <row r="35" spans="1:7" customHeight="1" ht="96">
       <c r="A35" s="9"/>
       <c r="B35" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D35" s="9">
         <v>22932</v>
@@ -2715,7 +2796,9 @@
       <c r="E35" s="9">
         <v>29400</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G35" s="9">
         <v>3</v>
       </c>
@@ -2723,10 +2806,10 @@
     <row r="36" spans="1:7" customHeight="1" ht="96">
       <c r="A36" s="9"/>
       <c r="B36" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D36" s="9">
         <v>19188</v>
@@ -2734,7 +2817,9 @@
       <c r="E36" s="9">
         <v>24600</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G36" s="9">
         <v>2</v>
       </c>
@@ -2742,10 +2827,10 @@
     <row r="37" spans="1:7" customHeight="1" ht="96">
       <c r="A37" s="9"/>
       <c r="B37" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D37" s="9">
         <v>20748</v>
@@ -2753,7 +2838,9 @@
       <c r="E37" s="9">
         <v>26600</v>
       </c>
-      <c r="F37" s="9"/>
+      <c r="F37" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G37" s="9">
         <v>1</v>
       </c>
@@ -2761,10 +2848,10 @@
     <row r="38" spans="1:7" customHeight="1" ht="96">
       <c r="A38" s="9"/>
       <c r="B38" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D38" s="9">
         <v>20748</v>
@@ -2772,7 +2859,9 @@
       <c r="E38" s="9">
         <v>26600</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G38" s="9">
         <v>1</v>
       </c>
@@ -2780,10 +2869,10 @@
     <row r="39" spans="1:7" customHeight="1" ht="96">
       <c r="A39" s="9"/>
       <c r="B39" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D39" s="9">
         <v>22932</v>
@@ -2791,14 +2880,16 @@
       <c r="E39" s="9">
         <v>29400</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G39" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="9"/>
@@ -2810,10 +2901,10 @@
     <row r="41" spans="1:7" customHeight="1" ht="96">
       <c r="A41" s="9"/>
       <c r="B41" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="D41" s="9">
         <v>26130</v>
@@ -2821,14 +2912,16 @@
       <c r="E41" s="9">
         <v>33500</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G41" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="9"/>
@@ -2840,10 +2933,10 @@
     <row r="43" spans="1:7" customHeight="1" ht="96">
       <c r="A43" s="9"/>
       <c r="B43" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="D43" s="9">
         <v>28704</v>
@@ -2851,7 +2944,9 @@
       <c r="E43" s="9">
         <v>36800</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G43" s="9">
         <v>10</v>
       </c>
@@ -2859,10 +2954,10 @@
     <row r="44" spans="1:7" customHeight="1" ht="96">
       <c r="A44" s="9"/>
       <c r="B44" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D44" s="9">
         <v>29796</v>
@@ -2870,14 +2965,16 @@
       <c r="E44" s="9">
         <v>38200</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G44" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45"/>
       <c r="C45"/>
@@ -2889,10 +2986,10 @@
     <row r="46" spans="1:7" customHeight="1" ht="96">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="D46" s="9">
         <v>15256.8</v>
@@ -2900,14 +2997,16 @@
       <c r="E46" s="9">
         <v>19560</v>
       </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G46" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="9"/>
@@ -2919,10 +3018,10 @@
     <row r="48" spans="1:7" customHeight="1" ht="96">
       <c r="A48" s="9"/>
       <c r="B48" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="D48" s="9">
         <v>25740</v>
@@ -2930,7 +3029,9 @@
       <c r="E48" s="9">
         <v>33000</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G48" s="9">
         <v>7</v>
       </c>
@@ -2938,10 +3039,10 @@
     <row r="49" spans="1:7" customHeight="1" ht="96">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D49" s="9">
         <v>25740</v>
@@ -2949,14 +3050,16 @@
       <c r="E49" s="9">
         <v>33000</v>
       </c>
-      <c r="F49" s="9"/>
+      <c r="F49" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G49" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="9"/>
@@ -2968,10 +3071,10 @@
     <row r="51" spans="1:7" customHeight="1" ht="96">
       <c r="A51" s="9"/>
       <c r="B51" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="D51" s="9">
         <v>12441</v>
@@ -2979,7 +3082,9 @@
       <c r="E51" s="9">
         <v>15950</v>
       </c>
-      <c r="F51" s="9"/>
+      <c r="F51" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G51" s="9">
         <v>2</v>
       </c>
@@ -2987,10 +3092,10 @@
     <row r="52" spans="1:7" customHeight="1" ht="96">
       <c r="A52" s="9"/>
       <c r="B52" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D52" s="9">
         <v>12441</v>
@@ -2998,14 +3103,16 @@
       <c r="E52" s="9">
         <v>15950</v>
       </c>
-      <c r="F52" s="9"/>
+      <c r="F52" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G52" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="9"/>
@@ -3017,10 +3124,10 @@
     <row r="54" spans="1:7" customHeight="1" ht="96">
       <c r="A54" s="9"/>
       <c r="B54" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="D54" s="9">
         <v>3354</v>
@@ -3028,7 +3135,9 @@
       <c r="E54" s="9">
         <v>4300</v>
       </c>
-      <c r="F54" s="9"/>
+      <c r="F54" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G54" s="9">
         <v>2</v>
       </c>
@@ -3036,10 +3145,10 @@
     <row r="55" spans="1:7" customHeight="1" ht="96">
       <c r="A55" s="9"/>
       <c r="B55" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D55" s="9">
         <v>5070</v>
@@ -3047,7 +3156,9 @@
       <c r="E55" s="9">
         <v>6500</v>
       </c>
-      <c r="F55" s="9"/>
+      <c r="F55" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G55" s="9">
         <v>2</v>
       </c>
@@ -3055,10 +3166,10 @@
     <row r="56" spans="1:7" customHeight="1" ht="96">
       <c r="A56" s="9"/>
       <c r="B56" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D56" s="9">
         <v>9048</v>
@@ -3066,7 +3177,9 @@
       <c r="E56" s="9">
         <v>11600</v>
       </c>
-      <c r="F56" s="9"/>
+      <c r="F56" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G56" s="9">
         <v>2</v>
       </c>
@@ -3074,10 +3187,10 @@
     <row r="57" spans="1:7" customHeight="1" ht="96">
       <c r="A57" s="9"/>
       <c r="B57" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D57" s="9">
         <v>3822</v>
@@ -3085,7 +3198,9 @@
       <c r="E57" s="9">
         <v>4900</v>
       </c>
-      <c r="F57" s="9"/>
+      <c r="F57" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G57" s="9">
         <v>2</v>
       </c>
@@ -3093,10 +3208,10 @@
     <row r="58" spans="1:7" customHeight="1" ht="96">
       <c r="A58" s="9"/>
       <c r="B58" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D58" s="9">
         <v>7176</v>
@@ -3104,7 +3219,9 @@
       <c r="E58" s="9">
         <v>9200</v>
       </c>
-      <c r="F58" s="9"/>
+      <c r="F58" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G58" s="9">
         <v>2</v>
       </c>
@@ -3112,10 +3229,10 @@
     <row r="59" spans="1:7" customHeight="1" ht="96">
       <c r="A59" s="9"/>
       <c r="B59" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D59" s="9">
         <v>6396</v>
@@ -3123,7 +3240,9 @@
       <c r="E59" s="9">
         <v>8200</v>
       </c>
-      <c r="F59" s="9"/>
+      <c r="F59" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G59" s="9">
         <v>2</v>
       </c>
@@ -3131,10 +3250,10 @@
     <row r="60" spans="1:7" customHeight="1" ht="96">
       <c r="A60" s="9"/>
       <c r="B60" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D60" s="9">
         <v>8268</v>
@@ -3142,14 +3261,16 @@
       <c r="E60" s="9">
         <v>10600</v>
       </c>
-      <c r="F60" s="9"/>
+      <c r="F60" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G60" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="9"/>
@@ -3161,10 +3282,10 @@
     <row r="62" spans="1:7" customHeight="1" ht="96">
       <c r="A62" s="9"/>
       <c r="B62" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="D62" s="9">
         <v>6708</v>
@@ -3172,7 +3293,9 @@
       <c r="E62" s="9">
         <v>8600</v>
       </c>
-      <c r="F62" s="9"/>
+      <c r="F62" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="G62" s="9">
         <v>10</v>
       </c>
@@ -3205,6 +3328,56 @@
     <mergeCell ref="A53:G53"/>
     <mergeCell ref="A61:G61"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId_hyperlink_1"/>
+    <hyperlink ref="F5" r:id="rId_hyperlink_2"/>
+    <hyperlink ref="F6" r:id="rId_hyperlink_3"/>
+    <hyperlink ref="F8" r:id="rId_hyperlink_4"/>
+    <hyperlink ref="F9" r:id="rId_hyperlink_5"/>
+    <hyperlink ref="F10" r:id="rId_hyperlink_6"/>
+    <hyperlink ref="F11" r:id="rId_hyperlink_7"/>
+    <hyperlink ref="F12" r:id="rId_hyperlink_8"/>
+    <hyperlink ref="F13" r:id="rId_hyperlink_9"/>
+    <hyperlink ref="F14" r:id="rId_hyperlink_10"/>
+    <hyperlink ref="F15" r:id="rId_hyperlink_11"/>
+    <hyperlink ref="F16" r:id="rId_hyperlink_12"/>
+    <hyperlink ref="F17" r:id="rId_hyperlink_13"/>
+    <hyperlink ref="F18" r:id="rId_hyperlink_14"/>
+    <hyperlink ref="F19" r:id="rId_hyperlink_15"/>
+    <hyperlink ref="F21" r:id="rId_hyperlink_16"/>
+    <hyperlink ref="F22" r:id="rId_hyperlink_17"/>
+    <hyperlink ref="F23" r:id="rId_hyperlink_18"/>
+    <hyperlink ref="F24" r:id="rId_hyperlink_19"/>
+    <hyperlink ref="F26" r:id="rId_hyperlink_20"/>
+    <hyperlink ref="F27" r:id="rId_hyperlink_21"/>
+    <hyperlink ref="F28" r:id="rId_hyperlink_22"/>
+    <hyperlink ref="F29" r:id="rId_hyperlink_23"/>
+    <hyperlink ref="F30" r:id="rId_hyperlink_24"/>
+    <hyperlink ref="F31" r:id="rId_hyperlink_25"/>
+    <hyperlink ref="F33" r:id="rId_hyperlink_26"/>
+    <hyperlink ref="F34" r:id="rId_hyperlink_27"/>
+    <hyperlink ref="F35" r:id="rId_hyperlink_28"/>
+    <hyperlink ref="F36" r:id="rId_hyperlink_29"/>
+    <hyperlink ref="F37" r:id="rId_hyperlink_30"/>
+    <hyperlink ref="F38" r:id="rId_hyperlink_31"/>
+    <hyperlink ref="F39" r:id="rId_hyperlink_32"/>
+    <hyperlink ref="F41" r:id="rId_hyperlink_33"/>
+    <hyperlink ref="F43" r:id="rId_hyperlink_34"/>
+    <hyperlink ref="F44" r:id="rId_hyperlink_35"/>
+    <hyperlink ref="F46" r:id="rId_hyperlink_36"/>
+    <hyperlink ref="F48" r:id="rId_hyperlink_37"/>
+    <hyperlink ref="F49" r:id="rId_hyperlink_38"/>
+    <hyperlink ref="F51" r:id="rId_hyperlink_39"/>
+    <hyperlink ref="F52" r:id="rId_hyperlink_40"/>
+    <hyperlink ref="F54" r:id="rId_hyperlink_41"/>
+    <hyperlink ref="F55" r:id="rId_hyperlink_42"/>
+    <hyperlink ref="F56" r:id="rId_hyperlink_43"/>
+    <hyperlink ref="F57" r:id="rId_hyperlink_44"/>
+    <hyperlink ref="F58" r:id="rId_hyperlink_45"/>
+    <hyperlink ref="F59" r:id="rId_hyperlink_46"/>
+    <hyperlink ref="F60" r:id="rId_hyperlink_47"/>
+    <hyperlink ref="F62" r:id="rId_hyperlink_48"/>
+  </hyperlinks>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
